--- a/src/measurement/ImageJ/final_data_3_with_prawn_ids.xlsx
+++ b/src/measurement/ImageJ/final_data_3_with_prawn_ids.xlsx
@@ -2757,7 +2757,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Prawn_4</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Prawn_0</t>
+          <t>Prawn_4</t>
         </is>
       </c>
     </row>
